--- a/data/trans_bre/IP16A02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A02-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-22,91</t>
+          <t>15,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,36</t>
+          <t>42,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-6,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-47,48%</t>
+          <t>46,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>-29,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>-32,79%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-40,04; -7,83</t>
+          <t>-32,54; 59,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 26,94</t>
+          <t>10,96; 76,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 11,4</t>
+          <t>-60,62; 31,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 14,6</t>
+          <t>-39,87; 41,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-69,87; -17,6</t>
+          <t>-55,18; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 98,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 37,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,12; 39,43</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>-22,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>12,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>-47,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>-11,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,87%</t>
+          <t>-6,56%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 25,93</t>
+          <t>-40,04; -7,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 17,07</t>
+          <t>-2,49; 26,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 25,04</t>
+          <t>-19,84; 11,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 19,27</t>
+          <t>-21,12; 14,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 85,31</t>
+          <t>-69,87; -17,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 57,27</t>
+          <t>-6,02; 98,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 103,79</t>
+          <t>-40,28; 37,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,41; 54,95</t>
+          <t>-39,12; 39,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,84</t>
+          <t>-9,28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42,68</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,02</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>46,17%</t>
+          <t>-20,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-29,54%</t>
+          <t>-6,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-32,79%</t>
+          <t>10,32%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 59,32</t>
+          <t>-28,82; 11,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,96; 76,34</t>
+          <t>-13,72; 17,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,62; 31,86</t>
+          <t>-23,57; 15,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 41,83</t>
+          <t>-19,0; 24,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,18; —</t>
+          <t>-55,68; 34,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,62; 56,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,71; 48,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,92; 64,8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-9,28</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-20,74%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-6,97%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>-4,87%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 11,6</t>
+          <t>-16,97; 25,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 17,59</t>
+          <t>-15,49; 17,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 15,43</t>
+          <t>-12,72; 25,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 24,56</t>
+          <t>-21,87; 19,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-55,68; 34,65</t>
+          <t>-37,99; 85,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 56,85</t>
+          <t>-32,67; 57,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 48,65</t>
+          <t>-29,73; 103,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 64,8</t>
+          <t>-38,41; 54,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A02-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 59,32</t>
+          <t>-32,06; 60,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,96; 76,34</t>
+          <t>11,94; 78,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-60,62; 31,86</t>
+          <t>-59,78; 32,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-55,18; —</t>
+          <t>-51,37; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 15,9</t>
+          <t>-23,94; 17,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 11,46</t>
+          <t>-29,11; 10,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 42,18</t>
+          <t>-1,4; 42,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 42,04</t>
+          <t>-4,51; 41,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,61; 86,38</t>
+          <t>-64,15; 99,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,5; 32,8</t>
+          <t>-52,6; 29,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 331,9</t>
+          <t>-10,74; 304,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 239,67</t>
+          <t>-11,51; 235,16</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-40,04; -7,83</t>
+          <t>-37,71; -5,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 26,94</t>
+          <t>-3,63; 27,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 11,4</t>
+          <t>-18,61; 11,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 14,6</t>
+          <t>-19,11; 15,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-69,87; -17,6</t>
+          <t>-69,5; -14,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 98,73</t>
+          <t>-8,63; 102,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 37,73</t>
+          <t>-39,96; 35,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,12; 39,43</t>
+          <t>-36,24; 39,63</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 11,6</t>
+          <t>-28,25; 11,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 17,59</t>
+          <t>-16,01; 16,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 15,43</t>
+          <t>-21,23; 15,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 24,56</t>
+          <t>-19,54; 24,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,68; 34,65</t>
+          <t>-54,07; 35,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 56,85</t>
+          <t>-33,01; 53,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 48,65</t>
+          <t>-40,9; 46,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 64,8</t>
+          <t>-34,3; 63,99</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 25,93</t>
+          <t>-15,32; 24,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 17,07</t>
+          <t>-15,03; 18,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 25,04</t>
+          <t>-12,09; 24,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 19,27</t>
+          <t>-22,06; 17,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 85,31</t>
+          <t>-36,2; 78,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 57,27</t>
+          <t>-31,2; 59,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 103,79</t>
+          <t>-26,0; 91,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-38,41; 54,95</t>
+          <t>-38,45; 49,14</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 1,06</t>
+          <t>-17,72; 1,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 11,5</t>
+          <t>-4,83; 11,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 11,02</t>
+          <t>-6,25; 10,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 12,17</t>
+          <t>-8,96; 12,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 3,0</t>
+          <t>-38,72; 4,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 33,54</t>
+          <t>-11,42; 33,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 34,85</t>
+          <t>-14,92; 33,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 30,24</t>
+          <t>-18,4; 30,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A02-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 60,17</t>
+          <t>-34,8; 63,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,94; 78,62</t>
+          <t>11,68; 77,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-59,78; 32,58</t>
+          <t>-65,9; 30,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 41,83</t>
+          <t>-50,87; 32,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,37; —</t>
+          <t>-53,95; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 17,56</t>
+          <t>-23,6; 16,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,11; 10,46</t>
+          <t>-29,21; 12,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 42,24</t>
+          <t>-4,5; 41,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 41,23</t>
+          <t>-5,61; 41,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,15; 99,16</t>
+          <t>-64,09; 95,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 29,51</t>
+          <t>-52,07; 34,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 304,54</t>
+          <t>-15,94; 289,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 235,16</t>
+          <t>-11,83; 235,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-37,71; -5,54</t>
+          <t>-39,59; -6,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 27,15</t>
+          <t>-5,16; 26,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 11,33</t>
+          <t>-19,51; 10,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 15,28</t>
+          <t>-20,38; 13,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-69,5; -14,11</t>
+          <t>-68,63; -15,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 102,23</t>
+          <t>-12,46; 95,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,96; 35,33</t>
+          <t>-40,88; 29,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,24; 39,63</t>
+          <t>-40,51; 34,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 11,64</t>
+          <t>-30,02; 10,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 16,79</t>
+          <t>-15,85; 16,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 15,22</t>
+          <t>-20,93; 16,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 24,08</t>
+          <t>-22,48; 23,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 35,82</t>
+          <t>-57,47; 31,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,01; 53,83</t>
+          <t>-32,9; 52,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,9; 46,72</t>
+          <t>-39,45; 48,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 63,99</t>
+          <t>-38,98; 60,7</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 24,79</t>
+          <t>-18,51; 24,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 18,74</t>
+          <t>-14,16; 18,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 24,26</t>
+          <t>-12,19; 24,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 17,62</t>
+          <t>-22,72; 18,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 78,65</t>
+          <t>-38,05; 78,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 59,19</t>
+          <t>-31,61; 62,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 91,9</t>
+          <t>-27,37; 96,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 49,14</t>
+          <t>-39,66; 45,94</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 1,46</t>
+          <t>-17,79; 1,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 11,77</t>
+          <t>-5,44; 11,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 10,4</t>
+          <t>-6,88; 11,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 12,27</t>
+          <t>-8,1; 11,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 4,05</t>
+          <t>-38,93; 4,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 33,08</t>
+          <t>-12,77; 34,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 33,38</t>
+          <t>-16,7; 35,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 30,59</t>
+          <t>-16,64; 29,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A02-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,84</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,68</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>13,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,02</t>
+          <t>12,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,17%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-29,54%</t>
+          <t>55,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-32,79%</t>
+          <t>44,03%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 63,68</t>
+          <t>-16,72; 20,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,68; 77,28</t>
+          <t>-23,41; 14,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-65,9; 30,65</t>
+          <t>-6,77; 31,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-50,87; 32,63</t>
+          <t>-8,96; 33,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,95; —</t>
+          <t>-44,0; 108,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,65; 47,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,27; 266,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,73; 178,44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-22,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,6</t>
+          <t>12,36</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,56</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,97</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,6%</t>
+          <t>-47,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-20,71%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>-11,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>62,79%</t>
+          <t>-11,78%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 16,82</t>
+          <t>-40,04; -7,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 12,04</t>
+          <t>-2,49; 26,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 41,29</t>
+          <t>-19,84; 11,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 41,79</t>
+          <t>-25,68; 12,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,09; 95,81</t>
+          <t>-69,87; -17,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,07; 34,79</t>
+          <t>-6,02; 98,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 289,22</t>
+          <t>-40,28; 37,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 235,27</t>
+          <t>-50,48; 33,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-22,91</t>
+          <t>-9,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,36</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-47,48%</t>
+          <t>-20,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>-6,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>-19,94%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-39,59; -6,71</t>
+          <t>-28,82; 11,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 26,24</t>
+          <t>-13,72; 17,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 10,02</t>
+          <t>-23,57; 15,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 13,97</t>
+          <t>-39,25; 18,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,63; -15,81</t>
+          <t>-55,68; 34,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 95,78</t>
+          <t>-29,62; 56,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 29,89</t>
+          <t>-41,71; 48,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,51; 34,76</t>
+          <t>-70,01; 39,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,28</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,74%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,97%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>-3,38%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,02; 10,41</t>
+          <t>-16,97; 25,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 16,44</t>
+          <t>-15,49; 17,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 16,65</t>
+          <t>-12,72; 25,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 23,65</t>
+          <t>-21,09; 19,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,47; 31,13</t>
+          <t>-37,99; 85,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 52,91</t>
+          <t>-32,67; 57,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,45; 48,45</t>
+          <t>-29,73; 103,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 60,7</t>
+          <t>-37,96; 56,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>-8,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>-20,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,87%</t>
+          <t>-8,46%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 24,93</t>
+          <t>-18,03; 1,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 18,88</t>
+          <t>-5,29; 11,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 24,59</t>
+          <t>-6,67; 11,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 18,11</t>
+          <t>-22,03; 7,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-38,05; 78,48</t>
+          <t>-38,72; 3,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 62,29</t>
+          <t>-12,09; 33,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 96,17</t>
+          <t>-16,06; 34,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 45,94</t>
+          <t>-43,99; 18,62</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-8,28</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-20,08%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,5%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,31%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-17,79; 1,74</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,44; 11,7</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,88; 11,1</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; 11,95</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-38,93; 4,92</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 34,12</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-16,7; 35,62</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-16,64; 29,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
